--- a/JPT data_FINAL.xlsx
+++ b/JPT data_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c76663e88c6dc25/Documents/Acads/GRADUATE SCHOOL/Matlab/Dynare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1471412B-26C1-4F6B-B7FA-DC7AE580D210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1173D817-212B-4619-8426-C810FB101E51}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{1471412B-26C1-4F6B-B7FA-DC7AE580D210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3150F47F-B88E-48F0-93BB-B7473FE7CB9B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51EAFD33-3670-41ED-9F39-741B9250EFA8}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE88B6AA-7324-48B5-B3F1-783BE10281F2}">
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="M246" sqref="M246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8967,7 +8967,7 @@
         <v>-4.2820594459999999</v>
       </c>
       <c r="K242" s="4">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9002,7 +9002,7 @@
         <v>-19.36102962</v>
       </c>
       <c r="K243" s="4">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
